--- a/4/python/xlsx/input.xlsx
+++ b/4/python/xlsx/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bimee\OneDrive\nn\4\python\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA55F3E-D7BE-45C1-A04C-0688B34C19C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D37A92-A45C-4690-8AC2-34F06FAF2B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56828831-9192-4857-AFB5-7F98E22BB55D}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,86 +421,86 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -545,21 +545,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -568,21 +568,21 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -590,13 +590,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -647,13 +647,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
